--- a/data/trans_bre/P17_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P17_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14,76</t>
+          <t>13,55</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>4,31</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,11</t>
+          <t>13,08</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>22,0</t>
+          <t>8,41</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>113,42%</t>
+          <t>20,73</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-5,84%</t>
+          <t>84,26%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>56,25%</t>
+          <t>22,88%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>128,21%</t>
+          <t>59,17%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>40,41%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>113,82%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,75; 25,92</t>
+          <t>-4,32; 29,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-21,91; 11,54</t>
+          <t>-14,85; 19,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 24,59</t>
+          <t>-5,65; 33,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,62; 48,34</t>
+          <t>-10,67; 29,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,65; 309,8</t>
+          <t>1,33; 48,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-59,85; 107,95</t>
+          <t>-20,35; 418,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-13,22; 180,96</t>
+          <t>-52,53; 203,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>21,48; 469,72</t>
+          <t>-20,22; 307,73</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-33,38; 322,48</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0,88; 680,97</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,73</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,33</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,91</t>
+          <t>6,27</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,18</t>
+          <t>8,03</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>57,26%</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>116,07%</t>
+          <t>22,11%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>62,62%</t>
+          <t>45,67%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>79,55%</t>
+          <t>83,55%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>73,26%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-0,61%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 15,03</t>
+          <t>-11,09; 14,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,64; 11,29</t>
+          <t>-2,75; 8,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,23; 11,36</t>
+          <t>0,01; 13,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,29; 14,03</t>
+          <t>0,39; 15,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 127,06</t>
+          <t>-18,56; 8,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,11; 296,12</t>
+          <t>-40,37; 103,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,38; 164,73</t>
+          <t>-28,85; 258,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,15; 177,41</t>
+          <t>-7,85; 276,47</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-2,67; 212,37</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-57,41; 69,88</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,31</t>
+          <t>9,53</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,03</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,91</t>
+          <t>9,83</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,87</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>164,83%</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>94,95%</t>
+          <t>140,39%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>136,06%</t>
+          <t>28,05%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>65,91%</t>
+          <t>195,89%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>57,87%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>55,22%</t>
         </is>
       </c>
     </row>
@@ -868,49 +934,59 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,05; 18,35</t>
+          <t>2,74; 16,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 8,68</t>
+          <t>-4,56; 6,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,31; 16,03</t>
+          <t>2,5; 15,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 13,33</t>
+          <t>-3,43; 11,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>51,31; 365,15</t>
+          <t>-2,55; 11,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,32; 379,09</t>
+          <t>21,22; 469,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>39,85; 378,52</t>
+          <t>-58,91; 320,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 187,46</t>
+          <t>22,56; 776,22</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-28,57; 249,26</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-22,88; 210,02</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,99</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,44</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,48</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,83</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>90,14%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>58,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>82,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>94,86%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,52 +1054,190 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,83; 15,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 8,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,18; 12,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,71; 18,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,77; 162,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,37; 144,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>32,89; 152,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>40,98; 181,96</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7,27</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,71</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8,56</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6,69</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5,45</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>51,86%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>37,19%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>99,55%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>58,36%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>34,88%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-1,47; 12,98</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-1,36; 6,76</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4,03; 13,4</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,85; 11,99</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-3,34; 12,87</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-9,13; 121,19</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-17,2; 121,88</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>35,54; 206,39</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>5,91; 141,6</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-20,28; 112,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P17_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P17_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>13,55</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,31</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>13,08</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>8,41</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>20,73</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>84,26%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>22,88%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>59,17%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>40,41%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>113,82%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>13.54641527962829</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>2.155630032715322</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>10.80943210268616</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>5.898144451520432</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>17.22109482721699</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.8426168199453326</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.1041240736791609</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.4521438763521246</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.260168754206349</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.9127445630582295</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,32; 29,99</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-14,85; 19,6</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-5,65; 33,86</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-10,67; 29,89</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>1,33; 48,28</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-20,35; 418,69</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-52,53; 203,02</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-20,22; 307,73</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-33,38; 322,48</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>0,88; 680,97</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-4.324778590004079</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-19.95308646330757</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-8.540608902856176</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-14.51673922575205</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-2.845845318144232</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.2035030417934444</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.600700122588374</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.2881554041785529</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.4154981203822069</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.1223353014125933</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>29.98592424514082</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>17.53684964911351</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>31.82243035693833</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>27.91675658105306</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>43.47678538800751</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>4.18690307536775</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.67729155961633</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.431563263493902</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>2.62151753934041</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>5.812163528152634</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>4,23</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,05</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>6,27</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>8,03</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-0,12</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>22,11%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>45,67%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>83,55%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>73,26%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-0,61%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-11,09; 14,06</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,75; 8,98</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,01; 13,31</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,39; 15,35</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-18,56; 8,96</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-40,37; 103,18</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-28,85; 258,32</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-7,85; 276,47</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-2,67; 212,37</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-57,41; 69,88</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>4.229490151878218</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>3.102324966241052</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>5.882370933430389</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>7.753812637509029</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.360028248504618</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.2210544907620134</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.4497400235387147</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.7364740070632803</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.6695825615880644</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.01905744995110232</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>9,53</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,29</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>9,83</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>4,8</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>4,88</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>140,39%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>28,05%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>195,89%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>57,87%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>55,22%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-11.09498608221242</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-2.591223815296197</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.656805941983811</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.7659274133506322</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-19.08484356002695</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.403690966171313</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.3070102905157529</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1293661281650051</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.0719418900389729</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.5719984197631863</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>2,74; 16,54</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,56; 6,19</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2,5; 15,91</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-3,43; 11,84</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-2,55; 11,55</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>21,22; 469,53</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-58,91; 320,64</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>22,56; 776,22</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-28,57; 249,26</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-22,88; 210,02</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>14.06440934032539</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>9.327954550141545</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>12.75867742443256</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>15.10769175382525</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>9.289571054352001</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.031833754907785</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>2.44922711937594</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>2.674491989590863</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.951635429809034</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.7360762895265406</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,252 +879,247 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>9.531386522904517</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.6245978119794188</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>9.161272286354242</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>3.899975290861779</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>4.55233282489368</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>1.40387106191298</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.1024450789045591</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>1.576386835461552</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.4489819453828658</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.5057364606304208</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>2.737394318795618</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-11.37984809352479</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.8863330483534564</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-4.725782163969261</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-3.171512126033792</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0.2122024894362304</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.8628571288395578</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.09923477346727433</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.3575687888469785</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.2613286671484366</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>16.53588844290447</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>4.358332032004449</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>15.66249796503516</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>10.96429715908534</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>11.13111175139073</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>4.695299349943942</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>1.777227442861606</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>6.030363443766568</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>2.102276658500937</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>2.016691149232403</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>7,27</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,71</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>8,56</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>6,69</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>5,45</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>51,86%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>37,19%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>99,55%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>58,36%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>34,88%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,47; 12,98</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-1,36; 6,76</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>4,03; 13,4</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>0,85; 11,99</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-3,34; 12,87</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-9,13; 121,19</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-17,2; 121,88</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>35,54; 206,39</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>5,91; 141,6</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-20,28; 112,21</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>7.270100251860828</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.715800510958299</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>7.992972489856569</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>6.014887789875453</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>4.938944722406899</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.5185934981377621</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.2095745963305911</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.8613877819069442</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.4963831277272814</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.3168174147743167</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.466288001910271</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.11254473901874</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>3.087023362283177</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.4557558001573835</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-4.103040928254327</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.09130595632817408</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.2929719346270682</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.2457629802854665</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.02600969618589851</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.2101521306261412</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>12.97543354423559</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.060017465390048</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>12.92011208575549</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>11.28444117320977</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>12.37506387929747</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.211888669353983</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.129249564730023</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.893520518002668</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>1.235945958814898</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>1.059729512032428</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
